--- a/front/cypress/fixtures/invites.xlsx
+++ b/front/cypress/fixtures/invites.xlsx
@@ -62,15 +62,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,6 +107,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,8 +162,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,7 +183,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,67 +272,70 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.30859375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="b">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
